--- a/Development/Web App Updates.xlsx
+++ b/Development/Web App Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Documents\Varsity\Year 3\WIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE46DE-96B4-43AE-8ACB-741B847D2A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A11C3D-720F-4790-8970-29DCCC4DC84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73356DFB-0CD5-4920-9C52-AAE2A007EC03}"/>
   </bookViews>
@@ -61,24 +61,26 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>20/11/2021</t>
-  </si>
-  <si>
-    <t>Initial setup complete.
+    <t>Juwi</t>
+  </si>
+  <si>
+    <t>Saiyen</t>
+  </si>
+  <si>
+    <t>Azhar</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Initial setup complete (Create, Edit, Delete, Details).
 Firebase Connected.
-Model Class Finalised.</t>
-  </si>
-  <si>
-    <t>Juwi</t>
-  </si>
-  <si>
-    <t>Saiyen</t>
-  </si>
-  <si>
-    <t>Azhar</t>
-  </si>
-  <si>
-    <t>Josh</t>
+Model Class Finalised.
+Authentication Added.
+Model Class Automatically Collects Totals.</t>
+  </si>
+  <si>
+    <t>22/11/2021</t>
   </si>
 </sst>
 </file>
@@ -500,7 +502,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,19 +545,19 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -569,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1"/>
